--- a/Certificates_for_linkedin.xlsx
+++ b/Certificates_for_linkedin.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jansen-Lin\github-local-repo\Jansen-Lin\Jansen-Lin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0183CFE5-0DE6-45CD-B596-D4122A1E5A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97313F34-70D6-4CBF-8A0C-6363AACA1710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1200" windowWidth="29040" windowHeight="15720" xr2:uid="{89010370-4A3A-4AE8-AC07-057DE2D26034}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89010370-4A3A-4AE8-AC07-057DE2D26034}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -394,6 +393,48 @@
   </si>
   <si>
     <t>#27,211,720</t>
+  </si>
+  <si>
+    <t>#27,213,116</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/course/fa9ec0ebea679cd43b230a0159156679578654fa</t>
+  </si>
+  <si>
+    <t>Hypothesis Testing in Python</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/track/c954c37e45dab7d157b20dd2351d4cb878f4e82b</t>
+  </si>
+  <si>
+    <t>Data Analyst with Python Track</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>#336,092</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>#27,328,368</t>
+  </si>
+  <si>
+    <t>2023-01</t>
+  </si>
+  <si>
+    <t>Introduction to Power BI</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/statement-of-accomplishment/course/698a19eefb2bd5d243788ee72514acef98c61bc7</t>
   </si>
 </sst>
 </file>
@@ -435,10 +476,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4C8B55-8BA3-4B5E-9D2D-3B78A7768B91}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,7 +1303,7 @@
       <c r="E25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1288,6 +1328,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>116</v>
       </c>
@@ -1302,6 +1345,66 @@
       </c>
       <c r="F27" s="1" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Certificates_for_linkedin.xlsx
+++ b/Certificates_for_linkedin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jansen-Lin\github-local-repo\Jansen-Lin\Jansen-Lin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97313F34-70D6-4CBF-8A0C-6363AACA1710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A503D79A-C4A6-475D-B514-3062D624ABD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89010370-4A3A-4AE8-AC07-057DE2D26034}"/>
   </bookViews>

--- a/Certificates_for_linkedin.xlsx
+++ b/Certificates_for_linkedin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jansen-Lin\github-local-repo\Jansen-Lin\Jansen-Lin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A503D79A-C4A6-475D-B514-3062D624ABD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A270C5D-2B30-4A75-B825-8B9053EDEB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89010370-4A3A-4AE8-AC07-057DE2D26034}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{89010370-4A3A-4AE8-AC07-057DE2D26034}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -435,6 +435,21 @@
   </si>
   <si>
     <t>https://www.datacamp.com/statement-of-accomplishment/course/698a19eefb2bd5d243788ee72514acef98c61bc7</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Generative AI Concepts</t>
+  </si>
+  <si>
+    <t>2024-01</t>
+  </si>
+  <si>
+    <t>https://www.datacamp.com/completed/statement-of-accomplishment/course/027386344e3b081768a62ed34d67590a2fda8779</t>
+  </si>
+  <si>
+    <t>#31,311,871</t>
   </si>
 </sst>
 </file>
@@ -476,9 +491,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,24 +809,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4C8B55-8BA3-4B5E-9D2D-3B78A7768B91}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="116" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,7 +846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -847,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
@@ -867,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -887,7 +903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -907,7 +923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -927,7 +943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
@@ -947,7 +963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
@@ -967,7 +983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -987,7 +1003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
@@ -1007,7 +1023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -1027,7 +1043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -1047,7 +1063,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -1067,7 +1083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>91</v>
       </c>
@@ -1087,7 +1103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>92</v>
       </c>
@@ -1107,7 +1123,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
@@ -1127,7 +1143,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
@@ -1147,7 +1163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>95</v>
       </c>
@@ -1167,7 +1183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
@@ -1187,7 +1203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
@@ -1207,7 +1223,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
@@ -1227,7 +1243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>99</v>
       </c>
@@ -1247,7 +1263,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>112</v>
       </c>
@@ -1267,7 +1283,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
@@ -1287,7 +1303,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>114</v>
       </c>
@@ -1307,7 +1323,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>115</v>
       </c>
@@ -1327,7 +1343,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>120</v>
       </c>
@@ -1347,7 +1363,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>121</v>
       </c>
@@ -1367,7 +1383,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>126</v>
       </c>
@@ -1387,7 +1403,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>128</v>
       </c>
@@ -1405,6 +1421,26 @@
       </c>
       <c r="F30" s="1" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1448,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E7 A2:A22" numberStoredAsText="1"/>
+    <ignoredError sqref="E7:E8 A2:A22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>